--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_9.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_9.xlsx
@@ -483,35 +483,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>schubert-winterreise_42</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_57</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.46875</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.344657, 11.337709)]</t>
+          <t>[(11.76, 15.64), (20.54, 23.16), (16.24, 17.66)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(57.251357, 73.909779)]</t>
+          <t>[(13.82, 17.98), (23.16, 26.04), (18.66, 20.14)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -520,80 +520,76 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>isophonics_205</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2687747035573123</v>
+        <v>0.04738805970149254</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['F', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['E', 'A:min', 'A:min/b7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
+          <t>[(14.52, 20.94)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.74, 13.46)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[(14.868843, 21.242721)]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1789473684210526</v>
+        <v>0.2375</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'G']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(14.199024, 21.33916)]</t>
+          <t>[(58.08, 65.66)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(47.187, 57.707)]</t>
+          <t>[(46.93228, 54.037586)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -602,109 +598,117 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_39</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.421195652173913</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.64, 43.66)]</t>
+          <t>[(21.44, 25.4)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.44, 38.46)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[(237.58, 253.72)]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_10</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1420265780730897</v>
+        <v>0.0485006518904824</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'C', 'G/3']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'C', 'G']]</t>
+          <t>[['D:7', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(34.416, 41.151)]</t>
+          <t>[(6.38, 12.5)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(39.886643, 43.090997)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[(15.79, 20.07)]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1875</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:maj', 'C#:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.06, 10.78)]</t>
+          <t>[(59.22, 71.12)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(27.771, 41.282)]</t>
+          <t>[(70.203514, 92.97068)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -713,35 +717,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>isophonics_150</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.07672413793103448</v>
+        <v>0.1441647597254004</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(17.04, 24.52), (6.3, 14.36)]</t>
+          <t>[(55.151295, 60.155195)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(20.92, 24.02), (11.24, 15.78)]</t>
+          <t>[(13.393711, 17.886772)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -750,113 +754,121 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(76.585782, 78.06481)]</t>
+          <t>[(93.26, 102.46)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(58.08, 65.66)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[(97.94, 108.3)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1106719367588933</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['G:7', 'C', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(140.48, 145.98), (40.28, 45.52), (1.56, 6.9)]</t>
+          <t>[(20.08, 22.56)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (36.4, 41.7), (13.12, 19.96)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[(47.25, 51.08)]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>isophonics_216</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2517482517482518</v>
+        <v>0.1421370967741936</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['B:min', 'E', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#'], ['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>[['E:min', 'A', 'D'], ['D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(140.48, 145.98), (1.56, 6.9)]</t>
+          <t>[(23.795215, 29.925283), (28.009637, 33.826235)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(2.0, 4.32), (16.24, 19.08)]</t>
+          <t>[(25.00678, 29.410731), (57.251357, 73.909779)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -865,109 +877,121 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_220</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2491694352159468</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj(*1)/5', 'G', 'G']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'D/7']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(10.454596, 24.259614)]</t>
+          <t>[(63.2, 73.12)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.325509, 3.175895)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[(20.56, 26.4)]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj/E', 'F:maj']]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(173.38, 176.02)]</t>
+          <t>[(261.828, 275.8)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(12.852267, 15.522562)]</t>
+          <t>[(118.44, 122.34)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1755952380952381</v>
+        <v>0.4875</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb', 'Eb', 'Bb/3']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(18.253, 23.992)]</t>
+          <t>[(138.02, 142.34)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(9.84, 13.16)]</t>
+          <t>[(55.58, 62.32)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -976,112 +1000,128 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1804812834224599</v>
+        <v>0.07728085867620751</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.8, 2.88)]</t>
+          <t>[(94.68, 110.76)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[(10.94, 16.32)]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.07984496124031007</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D'], ['G', 'C', 'G']]</t>
+          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min'], ['E:7', 'A:min', 'A:min', 'B:hdim7/D'], ['A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(63.524557, 70.536984), (7.668956, 11.14034)]</t>
+          <t>[(78.74, 89.26), (26.48, 34.32), (0.24, 9.6)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(57.7, 65.36), (54.18, 61.46)]</t>
+          <t>[(19.28, 24.94), (13.6, 19.28), (20.66, 26.4)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2403846153846154</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'B:min/5']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'G#:min']]</t>
+          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(6.519568, 15.92365)]</t>
+          <t>[(43.34, 59.34), (118.44, 121.68)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(31.19077, 38.435396)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>[(58.557, 62.834), (40.49, 47.86)]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
     </row>
   </sheetData>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_9.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,437 +488,480 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_42</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_57</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.76, 15.64), (20.54, 23.16), (16.24, 17.66)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.82, 17.98), (23.16, 26.04), (18.66, 20.14)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:14.580000', '0:00:55.620000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.04738805970149254</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>isophonics_41</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1160130718954248</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'A:min/b7']]</t>
+          <t>[['G', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(14.52, 20.94)]</t>
+          <t>[['A', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(14.868843, 21.242721)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+          <t>[('0:00:56.279931', '0:01:00.633673')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:42.394399', '0:00:50.173083')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2375</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>jaah_31</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3125</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['G:7', 'C', 'C', 'G:7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(58.08, 65.66)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(46.93228, 54.037586)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:06.040000', '0:00:13.240000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:04:01.220000', '0:04:11.280000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2363636363636364</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(21.44, 25.4)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(237.58, 253.72)]</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:02.600000', '0:00:04.500000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_32</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0485006518904824</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3342175066312997</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.38, 12.5)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(15.79, 20.07)]</t>
+          <t>[('0:00:36.400000', '0:00:55.360000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3833333333333333</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'G']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(59.22, 71.12)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(70.203514, 92.97068)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1441647597254004</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(55.151295, 60.155195)]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.393711, 17.886772)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(93.26, 102.46)]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[('0:01:33.100000', '0:01:51.540000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:30.160000', '0:00:44.080000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_55</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1106719367588933</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(20.08, 22.56)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(47.25, 51.08)]</t>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1421370967741936</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E', 'A'], ['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:min', 'A', 'D'], ['D/3', 'G', 'D']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(23.795215, 29.925283), (28.009637, 33.826235)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(25.00678, 29.410731), (57.251357, 73.909779)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
@@ -922,207 +970,170 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2380952380952381</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(261.828, 275.8)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(118.44, 122.34)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(138.02, 142.34)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(55.58, 62.32)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_276</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3909774436090225</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(94.68, 110.76)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[('0:00:07.834297', '0:00:15.380782')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:07.205000', '0:00:18.764000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07984496124031007</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'B:dim7/C', 'C:min'], ['G:7', 'C:min', 'C:min', 'D:hdim7/C'], ['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min'], ['E:7', 'A:min', 'A:min', 'B:hdim7/D'], ['A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(78.74, 89.26), (26.48, 34.32), (0.24, 9.6)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(19.28, 24.94), (13.6, 19.28), (20.66, 26.4)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_53</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(43.34, 59.34), (118.44, 121.68)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(58.557, 62.834), (40.49, 47.86)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
